--- a/Fases_de_desarrollo/04-Transicion/04- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/04- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\04- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B0147-53AE-4FDD-99DB-B53DFE2DFB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3EBD5-B92D-494D-BA8A-5293576E0C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERS" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 Descripción:
 Nivel de gravedad:
 Ubicación:
-Si se realizó la misma revision a distintos productos ingrese la palabra "Repetido"
+Si se realizó la misma revisión a distintos productos ingrese la palabra "Repetido"
 </t>
         </r>
       </text>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="118">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -835,73 +835,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Error encontrado en el formato de nomenclatura de nombres definido por el grupo de desarrollo OSLO, archivos docx y PDF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nivel de gravedad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Leve.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ubicación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\03- Pruebas\01-Pruebas CU Priorizados (Primera Tanda)\Pruebas CU12 CRUD Iteraciones\Caso de Prueba 12.1 Crearr Iteraciones _01.docx</t>
-    </r>
-  </si>
-  <si>
     <t>Caso de Prueba 12.3 Crear Iteraciones _03 Fechas</t>
   </si>
   <si>
@@ -911,48 +844,12 @@
     <t>Caso de Prueba 17 Consultar Subtipos Listado</t>
   </si>
   <si>
-    <t>Caso de Prueba 17.1 Consultar Subtipos Boton Volver</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 17.3 Crear Subtipos (Sin Exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 17.4 Crear  Subtipos Existente (Sin Exito)</t>
-  </si>
-  <si>
     <t>Caso de Prueba 17.5  Modificar Subtipos</t>
   </si>
   <si>
-    <t>Caso de Prueba 17.6  Modificar  Tipos  Existente (Sin exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 17.7  Eliminar Sutipos</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 18 Consultar Categoria Listado</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 18.1 Consultar Categoria Sin Categorías</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 18.2 Consultar Categoria Boton Volver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso de Prueba 18.3 Crear  Categoria </t>
-  </si>
-  <si>
     <t>Caso de Prueba 18.5  Modificar  Categoria.docx</t>
   </si>
   <si>
-    <t>Caso de Prueba 18.4 Crear  Categoria Cat Existente (sin exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 18.6  Modificar  Categoria Cat Existente (sin exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 18.7  Eliminar  Categoria</t>
-  </si>
-  <si>
     <t>Caso de Prueba 12 Consultar Iteraciones</t>
   </si>
   <si>
@@ -977,25 +874,10 @@
     <t>Caso de Prueba 12.6 Modificar Iteración Fechas</t>
   </si>
   <si>
-    <t>Caso de Prueba 12.7 Modificar Iteraciones Fechas Superpuestas (sin exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 12.8 Eliminar Iteraciones (sin exito)</t>
-  </si>
-  <si>
     <t>Caso de Prueba 16 Consultar Tipos Listado</t>
   </si>
   <si>
     <t>Caso de Prueba 16.1 Consultar Tipos No hay Tipos (Sin éxito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 16.2 Consultar Tipos Boton Volver (Sin Exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 16.3 Crear  Tipos Escenario (Sin Exito)</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 16.4 Crear  Tipos Escenario Existente (Sin Exito)</t>
   </si>
   <si>
     <t>Caso de Prueba 16.6  Modificar  Tipos Existente</t>
@@ -1074,13 +956,7 @@
     </r>
   </si>
   <si>
-    <t>Borrar Carpeta Pruebas CU 18 CRUD Categoria</t>
-  </si>
-  <si>
     <t>Revisión Ortográfica Nomenclaturas.xlsx</t>
-  </si>
-  <si>
-    <t>T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx</t>
   </si>
   <si>
     <r>
@@ -1150,10 +1026,289 @@
     </r>
   </si>
   <si>
-    <t>T02 - OSLO - Casos de Pruebas Integracion Testify.xlsx</t>
-  </si>
-  <si>
-    <t>T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx</t>
+    <t>IN09-OSLO-Resumen de Reunión 1.docx</t>
+  </si>
+  <si>
+    <t>IN010-OSLO-Resumen de Reunión 2.docx</t>
+  </si>
+  <si>
+    <t>IN011-OSLO-Resumen de Reunión 3.docx</t>
+  </si>
+  <si>
+    <t>IN012-OSLO-Resumen de Reunión 4.docx</t>
+  </si>
+  <si>
+    <t>IN013-OSLO-Resumen de Reunión 5.docx</t>
+  </si>
+  <si>
+    <t>IN014-OSLO-Resumen de Reunión 6.docx</t>
+  </si>
+  <si>
+    <t>No Anexado/No documentado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se añaden pruebas en módulos faltantes (copiar escenario y visualizar escenario) para un alcance de cobertura mayor.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Alto.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas</t>
+    </r>
+  </si>
+  <si>
+    <t>T03 - OSLO - Casos de Pruebas Integración Testify.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Error encontrado en el formato de nomenclatura de nombres definido por el grupo de desarrollo OSLO, archivos docx y PDF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\03- Pruebas\01-Pruebas CU Priorizados (Primera Tanda)\Pruebas CU12 CRUD Iteraciones\Caso de Prueba 12.1 Crear Iteraciones _01.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>Caso de Prueba 17.1 Consultar Subtipos Botón Volver</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 17.3 Crear Subtipos (Sin Éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 17.4 Crear  Subtipos Existente (Sin Éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 17.6  Modificar  Tipos  Existente (Sin éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 17.7  Eliminar Subtipos</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18 Consultar Categoría Listado</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18.1 Consultar Categoría Sin Categorías</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18.2 Consultar Categoría Botón Volver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de Prueba 18.3 Crear  Categoría </t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18.4 Crear  Categoría Cat Existente (sin éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18.6  Modificar  Categoría Cat Existente (sin éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 18.7  Eliminar  Categoría</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 12.7 Modificar Iteraciones Fechas Superpuestas (sin éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 12.8 Eliminar Iteraciones (sin éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 16.2 Consultar Tipos Botón Volver (Sin Éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 16.3 Crear  Tipos Escenario (Sin Éxito)</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 16.4 Crear  Tipos Escenario Existente (Sin Éxito)</t>
+  </si>
+  <si>
+    <t>Borrar Carpeta Pruebas CU 18 CRUD Categoría</t>
+  </si>
+  <si>
+    <t>T01 - OSLO - Casos de Pruebas Integración Testify.xlsx</t>
+  </si>
+  <si>
+    <t>T02 - OSLO - Casos de Pruebas Integración Testify.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se completa el repositorio de GitHub con el resumen de reunión pendiente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Moderado.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Registro_Reuniones</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1626,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2018,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B20" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
@@ -2359,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B20" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
@@ -2690,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3025,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,12 +3267,12 @@
         <v>17</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -3146,7 +3301,7 @@
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -3175,7 +3330,7 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -3199,12 +3354,12 @@
         <v>17</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -3228,12 +3383,12 @@
         <v>17</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -3257,12 +3412,12 @@
         <v>17</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -3286,12 +3441,12 @@
         <v>17</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -3315,12 +3470,12 @@
         <v>17</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -3344,12 +3499,12 @@
         <v>17</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
@@ -3373,12 +3528,12 @@
         <v>17</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -3402,12 +3557,12 @@
         <v>17</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
@@ -3431,12 +3586,12 @@
         <v>17</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -3460,12 +3615,12 @@
         <v>17</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -3489,12 +3644,12 @@
         <v>17</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -3518,12 +3673,12 @@
         <v>17</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -3547,12 +3702,12 @@
         <v>17</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
@@ -3576,12 +3731,12 @@
         <v>17</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -3605,12 +3760,12 @@
         <v>17</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
@@ -3634,12 +3789,12 @@
         <v>17</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
@@ -3663,12 +3818,12 @@
         <v>17</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
@@ -3692,12 +3847,12 @@
         <v>17</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2">
         <v>22</v>
@@ -3721,12 +3876,12 @@
         <v>17</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2">
         <v>23</v>
@@ -3750,12 +3905,12 @@
         <v>17</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2">
         <v>24</v>
@@ -3779,12 +3934,12 @@
         <v>17</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
@@ -3808,12 +3963,12 @@
         <v>17</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
@@ -3837,12 +3992,12 @@
         <v>17</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2">
         <v>27</v>
@@ -3866,12 +4021,12 @@
         <v>17</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2">
         <v>28</v>
@@ -3895,12 +4050,12 @@
         <v>17</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2">
         <v>29</v>
@@ -3924,12 +4079,12 @@
         <v>17</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2">
         <v>30</v>
@@ -3953,12 +4108,12 @@
         <v>17</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2">
         <v>31</v>
@@ -3982,12 +4137,12 @@
         <v>17</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2">
         <v>32</v>
@@ -4011,12 +4166,12 @@
         <v>17</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
@@ -4040,12 +4195,12 @@
         <v>17</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2">
         <v>34</v>
@@ -4069,12 +4224,12 @@
         <v>17</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2">
         <v>35</v>
@@ -4098,12 +4253,12 @@
         <v>17</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2">
         <v>36</v>
@@ -4127,12 +4282,12 @@
         <v>17</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
@@ -4156,17 +4311,17 @@
         <v>17</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -4185,17 +4340,17 @@
         <v>17</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2">
         <v>39</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -4214,17 +4369,17 @@
         <v>17</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -4243,115 +4398,323 @@
         <v>17</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F43" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F44" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D45" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E45" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F45" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>16</v>
+      <c r="H45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="621" yWindow="419" count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H39" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>$A$65:$A$68</formula1>
+      <formula1>$A$79:$A$82</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C39" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>$A$50:$A$56</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C45" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>$A$64:$A$70</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D2:D39" xr:uid="{00000000-0002-0000-0400-000002000000}">
-      <formula1>$A$58:$A$59</formula1>
+      <formula1>$A$72:$A$73</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G39" xr:uid="{00000000-0002-0000-0400-000003000000}">
-      <formula1>$A$61:$A$63</formula1>
+      <formula1>$A$75:$A$77</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F42" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
-    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E42" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G40:G42" xr:uid="{00000000-0002-0000-0700-000001000000}">
-      <formula1>$A$103:$A$105</formula1>
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F56" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
+    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E56" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G40:G56" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>$A$117:$A$119</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D40:D42" xr:uid="{00000000-0002-0000-0700-000002000000}">
-      <formula1>$A$100:$A$101</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D40:D56" xr:uid="{00000000-0002-0000-0700-000002000000}">
+      <formula1>$A$114:$A$115</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H40:H42" xr:uid="{00000000-0002-0000-0700-000004000000}">
-      <formula1>$A$107:$A$110</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H40:H56" xr:uid="{00000000-0002-0000-0700-000004000000}">
+      <formula1>$A$121:$A$124</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C40:C42" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C46:C56" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5036,12 +5399,12 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -5085,7 +5448,7 @@
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -5109,53 +5472,188 @@
         <v>17</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>45738</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6001,16 +6499,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F31:F63 F2 F6:F28" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C31:C63 C2 C6:C28" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
-    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E31:E63 E2 E6:E28" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H6:H90 H2" xr:uid="{00000000-0002-0000-0700-000004000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F31:F63 F2:F28" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C31:C63 C2 C9:C28" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
+    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E31:E63 E2:E28" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H90" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>$A$107:$A$110</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D6:D90 D2" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D2:D90" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>$A$100:$A$101</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G6:G90 G2" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G90" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>$A$103:$A$105</formula1>
     </dataValidation>
   </dataValidations>
